--- a/前端巩固计划.xlsx
+++ b/前端巩固计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9347"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="前端" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>编号</t>
   </si>
@@ -79,6 +79,15 @@
   </si>
   <si>
     <t>Docker实战-编写Dockerfile</t>
+  </si>
+  <si>
+    <t>前端优化面试</t>
+  </si>
+  <si>
+    <t>阿豪的职言</t>
+  </si>
+  <si>
+    <t>项目答辩《我和云动漫众包平台》</t>
   </si>
   <si>
     <t>有效性</t>
@@ -95,7 +104,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,21 +114,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,32 +143,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -186,25 +172,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,7 +205,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,7 +220,30 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,14 +256,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -264,25 +266,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -294,157 +440,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -455,15 +457,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -506,15 +499,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -547,6 +531,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -555,153 +548,162 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1063,15 +1065,15 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="61.8888888888889" customWidth="1"/>
-    <col min="3" max="3" width="19.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="61.8916666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.5583333333333" customWidth="1"/>
     <col min="4" max="4" width="24.6666666666667" style="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7777777777778" style="1" customWidth="1"/>
+    <col min="5" max="5" width="23.775" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1099,13 +1101,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="1">
         <v>43571</v>
       </c>
       <c r="E2" s="1">
-        <v>43571</v>
+        <v>43572</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1116,13 +1118,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="1">
         <v>43571</v>
       </c>
       <c r="E3" s="1">
-        <v>43571</v>
+        <v>43572</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1237,6 +1239,9 @@
       <c r="C10">
         <v>30</v>
       </c>
+      <c r="D10" s="1">
+        <v>43539</v>
+      </c>
       <c r="E10" s="1">
         <v>43571</v>
       </c>
@@ -1251,6 +1256,9 @@
       <c r="C11">
         <v>30</v>
       </c>
+      <c r="D11" s="1">
+        <v>43540</v>
+      </c>
       <c r="E11" s="1">
         <v>43571</v>
       </c>
@@ -1265,6 +1273,9 @@
       <c r="C12">
         <v>7</v>
       </c>
+      <c r="D12" s="1">
+        <v>43541</v>
+      </c>
       <c r="E12" s="1">
         <v>43571</v>
       </c>
@@ -1279,6 +1290,9 @@
       <c r="C13">
         <v>30</v>
       </c>
+      <c r="D13" s="1">
+        <v>43542</v>
+      </c>
       <c r="E13" s="1">
         <v>43571</v>
       </c>
@@ -1293,6 +1307,9 @@
       <c r="C14">
         <v>30</v>
       </c>
+      <c r="D14" s="1">
+        <v>43543</v>
+      </c>
       <c r="E14" s="1">
         <v>43571</v>
       </c>
@@ -1307,6 +1324,9 @@
       <c r="C15">
         <v>30</v>
       </c>
+      <c r="D15" s="1">
+        <v>43544</v>
+      </c>
       <c r="E15" s="1">
         <v>43571</v>
       </c>
@@ -1321,6 +1341,9 @@
       <c r="C16">
         <v>30</v>
       </c>
+      <c r="D16" s="1">
+        <v>43545</v>
+      </c>
       <c r="E16" s="1">
         <v>43571</v>
       </c>
@@ -1335,13 +1358,28 @@
       <c r="C17">
         <v>0</v>
       </c>
+      <c r="D17" s="1">
+        <v>43546</v>
+      </c>
       <c r="E17" s="1">
         <v>43575</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1">
+        <v>43546</v>
+      </c>
+      <c r="E18" s="1">
+        <v>43571</v>
       </c>
     </row>
     <row r="19" spans="1:1">
@@ -1477,15 +1515,15 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="62.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="20.4444444444444" customWidth="1"/>
+    <col min="2" max="2" width="62.1083333333333" customWidth="1"/>
+    <col min="3" max="3" width="20.4416666666667" customWidth="1"/>
     <col min="4" max="4" width="22.6666666666667" customWidth="1"/>
-    <col min="5" max="5" width="22.1111111111111" customWidth="1"/>
+    <col min="5" max="5" width="22.1083333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1509,8 +1547,9 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2"/>
-      <c r="C2"/>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
@@ -1518,8 +1557,9 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3"/>
-      <c r="C3"/>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
@@ -1527,8 +1567,6 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4"/>
-      <c r="C4"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
     </row>
@@ -1536,8 +1574,6 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5"/>
-      <c r="C5"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
     </row>
@@ -1545,8 +1581,6 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6"/>
-      <c r="C6"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
     </row>
@@ -1554,7 +1588,6 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
     </row>
@@ -1562,7 +1595,6 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
     </row>
@@ -1570,7 +1602,6 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
@@ -1578,7 +1609,6 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
@@ -1586,7 +1616,6 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
@@ -1594,7 +1623,6 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
@@ -1602,7 +1630,6 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
@@ -1610,7 +1637,6 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
@@ -1618,7 +1644,6 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
@@ -1626,7 +1651,6 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
     </row>
@@ -1826,11 +1850,11 @@
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/前端巩固计划.xlsx
+++ b/前端巩固计划.xlsx
@@ -98,11 +98,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -114,7 +114,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -122,7 +122,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -143,23 +143,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -172,9 +174,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -182,9 +183,25 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -205,38 +222,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -266,6 +266,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -278,6 +332,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -290,97 +350,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,43 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -457,60 +457,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -533,7 +479,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -552,6 +528,30 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -565,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1065,7 +1065,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1101,13 +1101,13 @@
         <v>5</v>
       </c>
       <c r="C2">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D2" s="1">
-        <v>43571</v>
+        <v>43572</v>
       </c>
       <c r="E2" s="1">
-        <v>43572</v>
+        <v>43575</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1118,13 +1118,13 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="D3" s="1">
-        <v>43571</v>
+        <v>43572</v>
       </c>
       <c r="E3" s="1">
-        <v>43572</v>
+        <v>43575</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1141,7 +1141,7 @@
         <v>43563</v>
       </c>
       <c r="E4" s="1">
-        <v>43571</v>
+        <v>43573</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1152,13 +1152,13 @@
         <v>8</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="D5" s="1">
-        <v>43571</v>
+        <v>43572</v>
       </c>
       <c r="E5" s="1">
-        <v>43571</v>
+        <v>43573</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1169,13 +1169,13 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>43570</v>
+        <v>43572</v>
       </c>
       <c r="E6" s="1">
-        <v>43571</v>
+        <v>43575</v>
       </c>
     </row>
     <row r="7" spans="1:5">

--- a/前端巩固计划.xlsx
+++ b/前端巩固计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465"/>
+    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="前端" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
   <si>
     <t>编号</t>
   </si>
@@ -84,10 +84,16 @@
     <t>前端优化面试</t>
   </si>
   <si>
+    <t>018微信小程序必知ms</t>
+  </si>
+  <si>
     <t>阿豪的职言</t>
   </si>
   <si>
     <t>项目答辩《我和云动漫众包平台》</t>
+  </si>
+  <si>
+    <t>项目答辩《如东二期开发》</t>
   </si>
   <si>
     <t>有效性</t>
@@ -257,12 +263,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -565,153 +577,168 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1064,8 +1091,8 @@
   <sheetPr/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1094,258 +1121,258 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="3">
         <v>3</v>
       </c>
-      <c r="D2" s="1">
+      <c r="D2" s="4">
         <v>43572</v>
       </c>
-      <c r="E2" s="1">
-        <v>43575</v>
+      <c r="E2" s="4">
+        <v>43582</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="3">
         <v>3</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="4">
         <v>43572</v>
       </c>
-      <c r="E3" s="1">
-        <v>43575</v>
+      <c r="E3" s="4">
+        <v>43582</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="3">
         <v>1</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="4">
         <v>43563</v>
       </c>
-      <c r="E4" s="1">
-        <v>43573</v>
+      <c r="E4" s="4">
+        <v>43582</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="3">
         <v>0.5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="4">
         <v>43572</v>
       </c>
-      <c r="E5" s="1">
-        <v>43573</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6">
+      <c r="E5" s="4">
+        <v>43582</v>
+      </c>
+    </row>
+    <row r="6" s="2" customFormat="1" spans="1:5">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="3">
         <v>3</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="4">
         <v>43572</v>
       </c>
-      <c r="E6" s="1">
-        <v>43575</v>
+      <c r="E6" s="4">
+        <v>43580</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="3">
+        <v>7</v>
+      </c>
+      <c r="D7" s="4">
+        <v>43541</v>
+      </c>
+      <c r="E7" s="4">
+        <v>43585</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="4">
+        <v>43571</v>
+      </c>
+      <c r="E8" s="4">
+        <v>43581</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3">
+        <v>30</v>
+      </c>
+      <c r="D9" s="4">
+        <v>43538</v>
+      </c>
+      <c r="E9" s="4">
+        <v>43630</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="3">
+        <v>30</v>
+      </c>
+      <c r="D10" s="4">
+        <v>43539</v>
+      </c>
+      <c r="E10" s="4">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3">
+        <v>30</v>
+      </c>
+      <c r="D11" s="4">
+        <v>43540</v>
+      </c>
+      <c r="E11" s="4">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="5">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="5">
+        <v>7</v>
+      </c>
+      <c r="D12" s="6">
         <v>43541</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E12" s="6">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="3">
+        <v>30</v>
+      </c>
+      <c r="D13" s="4">
+        <v>43542</v>
+      </c>
+      <c r="E13" s="4">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="3">
+        <v>30</v>
+      </c>
+      <c r="D14" s="4">
+        <v>43543</v>
+      </c>
+      <c r="E14" s="4">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3">
+        <v>30</v>
+      </c>
+      <c r="D15" s="4">
         <v>43544</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>43571</v>
-      </c>
-      <c r="E8" s="1">
-        <v>43571</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>12</v>
-      </c>
-      <c r="C9">
+      <c r="E15" s="4">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="3">
         <v>30</v>
       </c>
-      <c r="D9" s="1">
-        <v>43538</v>
-      </c>
-      <c r="E9" s="1">
-        <v>43630</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="C10">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1">
-        <v>43539</v>
-      </c>
-      <c r="E10" s="1">
-        <v>43571</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11">
-        <v>30</v>
-      </c>
-      <c r="D11" s="1">
-        <v>43540</v>
-      </c>
-      <c r="E11" s="1">
-        <v>43571</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12">
-        <v>7</v>
-      </c>
-      <c r="D12" s="1">
-        <v>43541</v>
-      </c>
-      <c r="E12" s="1">
-        <v>43571</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13">
-        <v>30</v>
-      </c>
-      <c r="D13" s="1">
-        <v>43542</v>
-      </c>
-      <c r="E13" s="1">
-        <v>43571</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>17</v>
-      </c>
-      <c r="C14">
-        <v>30</v>
-      </c>
-      <c r="D14" s="1">
-        <v>43543</v>
-      </c>
-      <c r="E14" s="1">
-        <v>43571</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>18</v>
-      </c>
-      <c r="C15">
-        <v>30</v>
-      </c>
-      <c r="D15" s="1">
-        <v>43544</v>
-      </c>
-      <c r="E15" s="1">
-        <v>43571</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16">
-        <v>30</v>
-      </c>
-      <c r="D16" s="1">
+      <c r="D16" s="4">
         <v>43545</v>
       </c>
-      <c r="E16" s="1">
-        <v>43571</v>
+      <c r="E16" s="4">
+        <v>43601</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1362,29 +1389,41 @@
         <v>43546</v>
       </c>
       <c r="E17" s="1">
-        <v>43575</v>
+        <v>43580</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="3">
         <v>14</v>
       </c>
-      <c r="D18" s="1">
+      <c r="D18" s="4">
         <v>43546</v>
       </c>
-      <c r="E18" s="1">
-        <v>43571</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="E18" s="4">
+        <v>43601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
       <c r="A19">
         <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>0.5</v>
+      </c>
+      <c r="D19" s="4">
+        <v>43546</v>
+      </c>
+      <c r="E19" s="4">
+        <v>43580</v>
       </c>
     </row>
     <row r="20" spans="1:1">
@@ -1498,6 +1537,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:E41">
+    <sortCondition ref="A2"/>
+  </sortState>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
       <formula1>字典!$A$2:$A$12</formula1>
@@ -1514,8 +1556,8 @@
   <sheetPr/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1548,7 +1590,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1558,7 +1600,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1566,6 +1608,9 @@
     <row r="4" spans="1:5">
       <c r="A4">
         <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>25</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1854,7 +1899,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/前端巩固计划.xlsx
+++ b/前端巩固计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView windowWidth="29040" windowHeight="12765"/>
   </bookViews>
   <sheets>
     <sheet name="前端" sheetId="1" r:id="rId1"/>
@@ -1091,8 +1091,8 @@
   <sheetPr/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1349,13 +1349,13 @@
         <v>18</v>
       </c>
       <c r="C15" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D15" s="4">
-        <v>43544</v>
+        <v>43625</v>
       </c>
       <c r="E15" s="4">
-        <v>43601</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1366,13 +1366,13 @@
         <v>19</v>
       </c>
       <c r="C16" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D16" s="4">
-        <v>43545</v>
+        <v>43625</v>
       </c>
       <c r="E16" s="4">
-        <v>43601</v>
+        <v>43686</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1400,13 +1400,13 @@
         <v>21</v>
       </c>
       <c r="C18" s="3">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D18" s="4">
-        <v>43546</v>
+        <v>43625</v>
       </c>
       <c r="E18" s="4">
-        <v>43601</v>
+        <v>43655</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1556,7 +1556,7 @@
   <sheetPr/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/前端巩固计划.xlsx
+++ b/前端巩固计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12765"/>
+    <workbookView windowWidth="24000" windowHeight="9765"/>
   </bookViews>
   <sheets>
     <sheet name="前端" sheetId="1" r:id="rId1"/>
@@ -149,30 +149,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -181,15 +157,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -212,6 +180,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -228,13 +204,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -242,7 +211,30 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -257,6 +249,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -278,187 +278,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,21 +492,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,6 +554,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -577,145 +577,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1092,7 +1092,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1128,13 +1128,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D2" s="4">
-        <v>43572</v>
+        <v>43633</v>
       </c>
       <c r="E2" s="4">
-        <v>43582</v>
+        <v>43673</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1145,13 +1145,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D3" s="4">
-        <v>43572</v>
+        <v>43633</v>
       </c>
       <c r="E3" s="4">
-        <v>43582</v>
+        <v>43673</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1162,13 +1162,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="3">
-        <v>1</v>
+        <v>30</v>
       </c>
       <c r="D4" s="4">
-        <v>43563</v>
+        <v>43624</v>
       </c>
       <c r="E4" s="4">
-        <v>43582</v>
+        <v>43673</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1179,13 +1179,13 @@
         <v>8</v>
       </c>
       <c r="C5" s="3">
-        <v>0.5</v>
+        <v>30</v>
       </c>
       <c r="D5" s="4">
-        <v>43572</v>
+        <v>43633</v>
       </c>
       <c r="E5" s="4">
-        <v>43582</v>
+        <v>43704</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:5">
@@ -1196,13 +1196,13 @@
         <v>9</v>
       </c>
       <c r="C6" s="3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D6" s="4">
-        <v>43572</v>
+        <v>43633</v>
       </c>
       <c r="E6" s="4">
-        <v>43580</v>
+        <v>43671</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1213,13 +1213,13 @@
         <v>10</v>
       </c>
       <c r="C7" s="3">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="D7" s="4">
-        <v>43541</v>
+        <v>43572</v>
       </c>
       <c r="E7" s="4">
-        <v>43585</v>
+        <v>43615</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1230,13 +1230,13 @@
         <v>11</v>
       </c>
       <c r="C8" s="3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D8" s="4">
-        <v>43571</v>
+        <v>43632</v>
       </c>
       <c r="E8" s="4">
-        <v>43581</v>
+        <v>43672</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1247,13 +1247,13 @@
         <v>12</v>
       </c>
       <c r="C9" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D9" s="4">
-        <v>43538</v>
+        <v>43630</v>
       </c>
       <c r="E9" s="4">
-        <v>43630</v>
+        <v>43691</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1264,13 +1264,13 @@
         <v>13</v>
       </c>
       <c r="C10" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D10" s="4">
-        <v>43539</v>
+        <v>43632</v>
       </c>
       <c r="E10" s="4">
-        <v>43601</v>
+        <v>43693</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1281,13 +1281,13 @@
         <v>14</v>
       </c>
       <c r="C11" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D11" s="4">
-        <v>43540</v>
+        <v>43632</v>
       </c>
       <c r="E11" s="4">
-        <v>43601</v>
+        <v>43693</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1315,13 +1315,13 @@
         <v>16</v>
       </c>
       <c r="C13" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4">
-        <v>43542</v>
+        <v>43625</v>
       </c>
       <c r="E13" s="4">
-        <v>43601</v>
+        <v>43693</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1332,13 +1332,13 @@
         <v>17</v>
       </c>
       <c r="C14" s="3">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="D14" s="4">
-        <v>43543</v>
+        <v>43625</v>
       </c>
       <c r="E14" s="4">
-        <v>43601</v>
+        <v>43693</v>
       </c>
     </row>
     <row r="15" spans="1:5">

--- a/前端巩固计划.xlsx
+++ b/前端巩固计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24000" windowHeight="9765"/>
+    <workbookView windowWidth="29040" windowHeight="12765"/>
   </bookViews>
   <sheets>
     <sheet name="前端" sheetId="1" r:id="rId1"/>
@@ -104,13 +104,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -120,7 +120,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,15 +215,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,85 +255,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,187 +285,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -469,6 +476,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -496,21 +518,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -532,30 +539,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -569,6 +552,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -577,10 +584,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -589,137 +596,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -733,6 +740,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
@@ -1092,7 +1102,7 @@
   <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1192,7 +1202,7 @@
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="5" t="s">
         <v>9</v>
       </c>
       <c r="C6" s="3">
@@ -1291,19 +1301,19 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="5">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="6">
         <v>7</v>
       </c>
-      <c r="D12" s="6">
+      <c r="D12" s="7">
         <v>43541</v>
       </c>
-      <c r="E12" s="6">
+      <c r="E12" s="7">
         <v>43601</v>
       </c>
     </row>

--- a/前端巩固计划.xlsx
+++ b/前端巩固计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="29040" windowHeight="12765"/>
+    <workbookView windowWidth="21000" windowHeight="11595"/>
   </bookViews>
   <sheets>
     <sheet name="前端" sheetId="1" r:id="rId1"/>
@@ -104,23 +104,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -270,12 +263,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -584,10 +583,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,137 +595,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -742,13 +741,16 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1101,8 +1103,8 @@
   <sheetPr/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1178,7 +1180,7 @@
         <v>43624</v>
       </c>
       <c r="E4" s="4">
-        <v>43673</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1195,7 +1197,7 @@
         <v>43633</v>
       </c>
       <c r="E5" s="4">
-        <v>43704</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="6" s="2" customFormat="1" spans="1:5">
@@ -1212,7 +1214,7 @@
         <v>43633</v>
       </c>
       <c r="E6" s="4">
-        <v>43671</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1229,7 +1231,7 @@
         <v>43572</v>
       </c>
       <c r="E7" s="4">
-        <v>43615</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1246,7 +1248,7 @@
         <v>43632</v>
       </c>
       <c r="E8" s="4">
-        <v>43672</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1263,7 +1265,7 @@
         <v>43630</v>
       </c>
       <c r="E9" s="4">
-        <v>43691</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1280,7 +1282,7 @@
         <v>43632</v>
       </c>
       <c r="E10" s="4">
-        <v>43693</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1297,7 +1299,7 @@
         <v>43632</v>
       </c>
       <c r="E11" s="4">
-        <v>43693</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1313,8 +1315,8 @@
       <c r="D12" s="7">
         <v>43541</v>
       </c>
-      <c r="E12" s="7">
-        <v>43601</v>
+      <c r="E12" s="4">
+        <v>43735</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1331,7 +1333,7 @@
         <v>43625</v>
       </c>
       <c r="E13" s="4">
-        <v>43693</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1348,7 +1350,7 @@
         <v>43625</v>
       </c>
       <c r="E14" s="4">
-        <v>43693</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1365,7 +1367,7 @@
         <v>43625</v>
       </c>
       <c r="E15" s="4">
-        <v>43686</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1382,14 +1384,14 @@
         <v>43625</v>
       </c>
       <c r="E16" s="4">
-        <v>43686</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C17">
@@ -1398,8 +1400,8 @@
       <c r="D17" s="1">
         <v>43546</v>
       </c>
-      <c r="E17" s="1">
-        <v>43580</v>
+      <c r="E17" s="4">
+        <v>43735</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1416,7 +1418,7 @@
         <v>43625</v>
       </c>
       <c r="E18" s="4">
-        <v>43655</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1433,7 +1435,7 @@
         <v>43546</v>
       </c>
       <c r="E19" s="4">
-        <v>43580</v>
+        <v>43735</v>
       </c>
     </row>
     <row r="20" spans="1:1">

--- a/前端巩固计划.xlsx
+++ b/前端巩固计划.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595"/>
+    <workbookView windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="前端" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="29">
   <si>
     <t>编号</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>018微信小程序必知ms</t>
+  </si>
+  <si>
+    <t>async和await</t>
+  </si>
+  <si>
+    <t>最新经典web前端面试题</t>
   </si>
   <si>
     <t>阿豪的职言</t>
@@ -104,11 +110,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="yyyy/m/d;@"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -120,15 +126,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -139,14 +151,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -165,7 +169,38 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -178,8 +213,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,32 +253,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -239,29 +268,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="35">
     <fill>
@@ -272,13 +278,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.15"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.15"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -302,6 +326,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -338,19 +380,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -417,54 +471,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,6 +481,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -504,15 +543,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -551,30 +581,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -583,10 +589,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -595,137 +601,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="28" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,6 +741,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -744,13 +756,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1103,8 +1112,10 @@
   <sheetPr/>
   <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="O44" sqref="O44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1115,275 +1126,275 @@
     <col min="5" max="5" width="23.775" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" t="s">
+    <row r="1" s="2" customFormat="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="3">
+      <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="5">
         <v>30</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="6">
         <v>43633</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>43673</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="3">
+      <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="5">
         <v>30</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="6">
         <v>43633</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>43673</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="3">
+      <c r="A4" s="5">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="5">
         <v>30</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="6">
         <v>43624</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="6">
         <v>43735</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="3">
+      <c r="A5" s="5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="5">
         <v>30</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="6">
         <v>43633</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="6">
         <v>43735</v>
       </c>
     </row>
-    <row r="6" s="2" customFormat="1" spans="1:5">
-      <c r="A6" s="3">
+    <row r="6" s="3" customFormat="1" spans="1:5">
+      <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <v>30</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="6">
         <v>43633</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="6">
         <v>43735</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="3">
+      <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <v>30</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="6">
         <v>43572</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="6">
         <v>43735</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="3">
+      <c r="A8" s="5">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <v>30</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="6">
         <v>43632</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="6">
         <v>43735</v>
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="3">
+      <c r="A9" s="5">
         <v>8</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <v>60</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="6">
         <v>43630</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>43735</v>
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="3">
+      <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="5">
         <v>60</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <v>43632</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>43735</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="3">
+      <c r="A11" s="5">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="5">
         <v>60</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="6">
         <v>43632</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="6">
         <v>43735</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="6">
+      <c r="A12" s="8">
         <v>11</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="8">
         <v>7</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="9">
         <v>43541</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="6">
         <v>43735</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="3">
+      <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <v>60</v>
       </c>
-      <c r="D13" s="4">
+      <c r="D13" s="6">
         <v>43625</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="6">
         <v>43735</v>
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="3">
+      <c r="A14" s="5">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="5">
         <v>60</v>
       </c>
-      <c r="D14" s="4">
+      <c r="D14" s="6">
         <v>43625</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="6">
         <v>43735</v>
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="3">
+      <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="5">
         <v>60</v>
       </c>
-      <c r="D15" s="4">
+      <c r="D15" s="6">
         <v>43625</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="6">
         <v>43735</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="3">
+      <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="5">
         <v>60</v>
       </c>
-      <c r="D16" s="4">
+      <c r="D16" s="6">
         <v>43625</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="6">
         <v>43735</v>
       </c>
     </row>
@@ -1391,7 +1402,7 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
       <c r="C17">
@@ -1400,24 +1411,24 @@
       <c r="D17" s="1">
         <v>43546</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="6">
         <v>43735</v>
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="3">
+      <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="5">
         <v>30</v>
       </c>
-      <c r="D18" s="4">
+      <c r="D18" s="6">
         <v>43625</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="6">
         <v>43735</v>
       </c>
     </row>
@@ -1431,21 +1442,45 @@
       <c r="C19">
         <v>0.5</v>
       </c>
-      <c r="D19" s="4">
+      <c r="D19" s="6">
         <v>43546</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="6">
         <v>43735</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:5">
       <c r="A20">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>43730</v>
+      </c>
+      <c r="E20" s="1">
+        <v>43730</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
       <c r="A21">
         <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>43730</v>
+      </c>
+      <c r="E21" s="1">
+        <v>43730</v>
       </c>
     </row>
     <row r="22" spans="1:1">
@@ -1553,7 +1588,7 @@
     <sortCondition ref="A2"/>
   </sortState>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C$1:C$1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C21 C1:C20 C22:C1048576">
       <formula1>字典!$A$2:$A$12</formula1>
     </dataValidation>
   </dataValidations>
@@ -1602,7 +1637,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
@@ -1612,7 +1647,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
@@ -1622,7 +1657,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
@@ -1911,7 +1946,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:1">
